--- a/lib/report/benchmark_report/web14/exl/202003/jsliu__bank_test_&_city_(HF)(202003)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202003/jsliu__bank_test_&_city_(HF)(202003)_EVE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Economic Value of Equity (EVE) Report</t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: March, 2020        Evaluation Date: March 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 07/14/20 2:09:58 PM</t>
+    <t>Printed on: 09/01/20 4:48:32 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
+  </si>
+  <si>
+    <t>Accrued Interest is Reported Explicitly in BS : No</t>
+  </si>
+  <si>
+    <t>Enable Credit Loss in Valuation : No</t>
+  </si>
+  <si>
+    <t>Enable Credit Loss in Valuation for OBS : No</t>
   </si>
   <si>
     <t>Maturity* (with the suffix *) indicates that some items are not taken in averaging the weighted average maturity.</t>
@@ -5306,13 +5315,13 @@
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="28.5">
       <c r="A5" s="233" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" s="236" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" s="236" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5" s="238" t="s">
         <v>15</v>
@@ -5345,24 +5354,24 @@
         <v>24</v>
       </c>
       <c r="N5" s="238" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" s="238" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P5" s="236" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="236" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R5" s="236" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="269" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="270"/>
@@ -5384,7 +5393,7 @@
     </row>
     <row r="7">
       <c r="A7" s="274" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="275">
         <v>5.0721121710861183</v>
@@ -5440,7 +5449,7 @@
     </row>
     <row r="8">
       <c r="A8" s="274" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8" s="275">
         <v>5.0721121710861183</v>
@@ -5496,7 +5505,7 @@
     </row>
     <row r="9">
       <c r="A9" s="274" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" s="275">
         <v>0.8847431842762371</v>
@@ -5552,7 +5561,7 @@
     </row>
     <row r="10">
       <c r="A10" s="279" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B10" s="280">
         <v>37.837807189184332</v>
@@ -5608,7 +5617,7 @@
     </row>
     <row r="12">
       <c r="A12" s="269" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B12" s="270"/>
       <c r="C12" s="270"/>
@@ -5630,7 +5639,7 @@
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="284" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="242">
         <v>0</v>
@@ -5686,7 +5695,7 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="284" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" s="242">
         <v>0.08</v>
@@ -5742,7 +5751,7 @@
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" s="285" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" s="286">
         <v>0.0443305785123967</v>
@@ -5798,7 +5807,7 @@
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="289" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B16" s="242">
         <v>4.3956043956</v>
@@ -5854,7 +5863,7 @@
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="290" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B17" s="286">
         <v>4.3956043956</v>
@@ -5910,7 +5919,7 @@
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="284" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B18" s="242">
         <v>2.8397565923</v>
@@ -5966,7 +5975,7 @@
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="291" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B19" s="242">
         <v>2.6651273346184</v>
@@ -6022,7 +6031,7 @@
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="292" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" s="286">
         <v>2.6651273346184</v>
@@ -6078,7 +6087,7 @@
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="291" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B21" s="242">
         <v>2.6654795689</v>
@@ -6134,7 +6143,7 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="292" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B22" s="286">
         <v>2.6654795689</v>
@@ -6190,7 +6199,7 @@
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="290" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B23" s="286">
         <v>2.6651860077358238</v>
@@ -6246,7 +6255,7 @@
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" s="285" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B24" s="286">
         <v>3.1678986272269323</v>
@@ -6302,7 +6311,7 @@
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="291" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B25" s="242">
         <v>7.4889721187999987</v>
@@ -6358,7 +6367,7 @@
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="291" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B26" s="242">
         <v>7.4889721188</v>
@@ -6414,7 +6423,7 @@
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="292" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B27" s="286">
         <v>7.4889721188</v>
@@ -6470,7 +6479,7 @@
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="289" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B28" s="242">
         <v>5.1797383314</v>
@@ -6526,7 +6535,7 @@
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="291" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B29" s="242">
         <v>6.3047703516</v>
@@ -6582,7 +6591,7 @@
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="293" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B30" s="242">
         <v>6.1074075508</v>
@@ -6638,7 +6647,7 @@
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="293" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B31" s="242">
         <v>6.3047703516</v>
@@ -6694,7 +6703,7 @@
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="294" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B32" s="286">
         <v>6.1094504699476033</v>
@@ -6750,7 +6759,7 @@
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="292" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B33" s="286">
         <v>6.1167747914524986</v>
@@ -6806,7 +6815,7 @@
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="291" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B34" s="242">
         <v>5.1797383314</v>
@@ -6862,7 +6871,7 @@
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="291" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B35" s="242">
         <v>5.1797383314</v>
@@ -6918,7 +6927,7 @@
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="292" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B36" s="286">
         <v>5.1797383314000012</v>
@@ -6974,7 +6983,7 @@
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="290" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B37" s="286">
         <v>6.0131863321583348</v>
@@ -7030,7 +7039,7 @@
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="284" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B38" s="242">
         <v>6.3127268418</v>
@@ -7086,7 +7095,7 @@
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="284" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B39" s="242">
         <v>7.1440838056</v>
@@ -7142,7 +7151,7 @@
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="289" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B40" s="242">
         <v>7.3376301438</v>
@@ -7198,7 +7207,7 @@
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="289" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B41" s="242">
         <v>7.3376301438</v>
@@ -7254,7 +7263,7 @@
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="290" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B42" s="286">
         <v>7.3376301437999993</v>
@@ -7310,7 +7319,7 @@
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="284" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B43" s="242">
         <v>5.1698281422</v>
@@ -7366,7 +7375,7 @@
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" s="285" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B44" s="286">
         <v>6.2028927592094716</v>
@@ -7422,13 +7431,13 @@
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="284" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B45" s="242">
         <v>0</v>
       </c>
       <c r="C45" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="241">
         <v>1596</v>
@@ -7478,13 +7487,13 @@
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="284" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B46" s="242">
         <v>0</v>
       </c>
       <c r="C46" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="241">
         <v>81</v>
@@ -7534,13 +7543,13 @@
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="284" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B47" s="242">
         <v>0</v>
       </c>
       <c r="C47" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="241">
         <v>975</v>
@@ -7590,13 +7599,13 @@
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="284" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B48" s="242">
         <v>0</v>
       </c>
       <c r="C48" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D48" s="241">
         <v>-782</v>
@@ -7646,13 +7655,13 @@
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" s="285" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B49" s="286">
         <v>0</v>
       </c>
       <c r="C49" s="295" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="287">
         <v>1870</v>
@@ -7702,7 +7711,7 @@
     </row>
     <row r="50">
       <c r="A50" s="296" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" s="286">
         <v>5.0721121710861183</v>
@@ -7758,7 +7767,7 @@
     </row>
     <row r="52">
       <c r="A52" s="269" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B52" s="270"/>
       <c r="C52" s="270"/>
@@ -7780,7 +7789,7 @@
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="284" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B53" s="242">
         <v>1.51853300511418</v>
@@ -7836,13 +7845,13 @@
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="284" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B54" s="242">
         <v>0.7271669575</v>
       </c>
       <c r="C54" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D54" s="241">
         <v>1999.8899512978899</v>
@@ -7892,13 +7901,13 @@
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="284" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B55" s="242">
         <v>0.72716695749999993</v>
       </c>
       <c r="C55" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D55" s="241">
         <v>25583.8102134328</v>
@@ -7948,13 +7957,13 @@
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="284" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B56" s="242">
         <v>0.2472442567</v>
       </c>
       <c r="C56" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D56" s="241">
         <v>9802.52260829763</v>
@@ -8004,13 +8013,13 @@
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="284" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B57" s="242">
         <v>0</v>
       </c>
       <c r="C57" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D57" s="241">
         <v>19235.470814031</v>
@@ -8060,7 +8069,7 @@
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" s="285" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B58" s="286">
         <v>0.88831722169890182</v>
@@ -8116,13 +8125,13 @@
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="284" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B59" s="242">
         <v>0</v>
       </c>
       <c r="C59" s="272" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D59" s="241">
         <v>402</v>
@@ -8172,13 +8181,13 @@
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" s="285" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B60" s="286">
         <v>0</v>
       </c>
       <c r="C60" s="295" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D60" s="287">
         <v>402</v>
@@ -8228,7 +8237,7 @@
     </row>
     <row r="61">
       <c r="A61" s="296" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B61" s="286">
         <v>0.8847431842762371</v>
@@ -8284,7 +8293,7 @@
     </row>
     <row r="63">
       <c r="A63" s="269" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B63" s="270"/>
       <c r="C63" s="270"/>
@@ -8306,7 +8315,7 @@
     </row>
     <row r="64">
       <c r="A64" s="296" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B64" s="286">
         <v>37.837807189184332</v>
@@ -8379,7 +8388,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -8990,84 +8999,99 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="227" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="64">
       <c r="A64" s="227" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="227" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="227" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="227" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="227" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="227" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="227" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="227" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="227" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="227" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="227" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="227" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="227" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="227" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="227" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="227" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="227" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
